--- a/test/data/mmset4-.xlsx
+++ b/test/data/mmset4-.xlsx
@@ -65,11 +65,10 @@
         <u val="single"/>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/apinatomy-models/master/models/wbrcm/source/wbrcm.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4</t>
+      <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm_model.json</t>
     </r>
     <r>
       <rPr>
@@ -78,8 +77,9 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.json</t>
+      <t xml:space="preserve">,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.json</t>
     </r>
   </si>
   <si>
@@ -1475,9 +1475,8 @@
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1485,6 +1484,7 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1535,11 +1535,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1549,6 +1549,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1573,7 +1577,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1622,6 +1626,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm_model.json"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4015,7 +4022,7 @@
       <c r="A2" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>437</v>
       </c>
     </row>
@@ -4023,7 +4030,7 @@
       <c r="A3" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>439</v>
       </c>
     </row>
@@ -4031,7 +4038,7 @@
       <c r="A4" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4039,7 +4046,7 @@
       <c r="A5" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4047,7 +4054,7 @@
       <c r="A6" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>445</v>
       </c>
     </row>
@@ -4055,7 +4062,7 @@
       <c r="A7" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>447</v>
       </c>
     </row>
@@ -4063,7 +4070,7 @@
       <c r="A8" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>449</v>
       </c>
     </row>
@@ -4071,7 +4078,7 @@
       <c r="A9" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>451</v>
       </c>
     </row>
@@ -4079,7 +4086,7 @@
       <c r="A10" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>453</v>
       </c>
     </row>
@@ -4087,7 +4094,7 @@
       <c r="A11" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>455</v>
       </c>
     </row>
@@ -4095,7 +4102,7 @@
       <c r="A12" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>457</v>
       </c>
     </row>
@@ -4103,7 +4110,7 @@
       <c r="A13" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4111,7 +4118,7 @@
       <c r="A14" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>461</v>
       </c>
     </row>

--- a/test/data/mmset4-.xlsx
+++ b/test/data/mmset4-.xlsx
@@ -60,27 +60,7 @@
     <t xml:space="preserve">Generated neuron chains from sparc-nlp.ttl</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm_model.json</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.json</t>
-    </r>
+    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.json</t>
   </si>
   <si>
     <t xml:space="preserve">supertype</t>
@@ -1477,6 +1457,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1577,7 +1558,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1605,7 +1586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -1627,7 +1608,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm_model.json"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.json"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/test/data/mmset4-.xlsx
+++ b/test/data/mmset4-.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="480">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Generated neuron chains from sparc-nlp.ttl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.json</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.jsonhttps://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.json</t>
   </si>
   <si>
     <t xml:space="preserve">supertype</t>
@@ -261,61 +261,85 @@
     <t xml:space="preserve">mmset4/1_lnk_0</t>
   </si>
   <si>
+    <t xml:space="preserve">Neural segment for UBERON:0018675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/1_n2</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmset4/1_n3</t>
   </si>
   <si>
+    <t xml:space="preserve">mmset4/1_lnk_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/1_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/1_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/1_n1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/1_lnk_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/1_n6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/1_lnk_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmset4/1_n4</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/1_lnk_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/1_n6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/1_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/1_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for UBERON:0018675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/1_lnk_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/1_n1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/1_lnk_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/1_n5</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmset4/2_lnk_0</t>
   </si>
   <si>
+    <t xml:space="preserve">Neural segment for ILX:0793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/2_n3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/2_n4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/2_lnk_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/2_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/2_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/2_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/2_lnk_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Neural segment for ILX:0793805</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/2_n6</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/2_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/2_lnk_1</t>
+    <t xml:space="preserve">mmset4/2_lnk_4</t>
   </si>
   <si>
     <t xml:space="preserve">Neural segment for ILX:0793804</t>
@@ -324,30 +348,6 @@
     <t xml:space="preserve">mmset4/2_n1</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/2_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/2_n3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/2_n4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/2_lnk_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/2_lnk_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/2_n5</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmset4/3a_lnk_0</t>
   </si>
   <si>
@@ -360,21 +360,21 @@
     <t xml:space="preserve">mmset4/3a_lnk_1</t>
   </si>
   <si>
+    <t xml:space="preserve">mmset4/3a_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3a_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3a_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3a_lnk_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmset4/3a_n1</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/3a_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3a_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3a_n5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3a_lnk_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmset4/3b_lnk_0</t>
   </si>
   <si>
@@ -390,103 +390,160 @@
     <t xml:space="preserve">mmset4/3b_lnk_1</t>
   </si>
   <si>
+    <t xml:space="preserve">mmset4/3b_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3b_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3b_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3b_lnk_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmset4/3b_n1</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/3b_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3b_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3b_n5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3b_lnk_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmset4/3c_lnk_0</t>
   </si>
   <si>
+    <t xml:space="preserve">Neural segment for UBERON:0002366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3c_n3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3c_n4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3c_lnk_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3c_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3c_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3c_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/3c_lnk_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmset4/3c_n1</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/3c_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3c_lnk_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3c_n5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3c_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for UBERON:0002366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3c_n3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3c_n4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/3c_lnk_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmset4/7_lnk_0</t>
   </si>
   <si>
+    <t xml:space="preserve">Neural segment for ILX:0793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for UBERON:0018681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for ILX:0793811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_n7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for UBERON:0018680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Neural segment for ILX:0793819</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/7_n15</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/7_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_n11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for UBERON:0018681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_n4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_n3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_n5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for UBERON:0018680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_5</t>
+    <t xml:space="preserve">mmset4/7_lnk_12</t>
   </si>
   <si>
     <t xml:space="preserve">Neural segment for ILX:0793816</t>
@@ -495,61 +552,7 @@
     <t xml:space="preserve">mmset4/7_n12</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/7_lnk_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_n7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_n6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_n13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_n9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_n1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural segment for ILX:0793812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_n8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_12</t>
+    <t xml:space="preserve">mmset4/7_lnk_13</t>
   </si>
   <si>
     <t xml:space="preserve">Neural segment for ILX:0793818</t>
@@ -558,9 +561,6 @@
     <t xml:space="preserve">mmset4/7_n14</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/7_lnk_13</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmset4/7_lnk_14</t>
   </si>
   <si>
@@ -573,87 +573,87 @@
     <t xml:space="preserve">mmset4/8_lnk_0</t>
   </si>
   <si>
+    <t xml:space="preserve">mmset4/8_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/8_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/8_lnk_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmset4/8_n4</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/8_n3</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/8_lnk_1</t>
+    <t xml:space="preserve">mmset4/8_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/8_n7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/8_lnk_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/8_n8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/8_lnk_4</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/8_n1</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/8_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/8_lnk_2</t>
+    <t xml:space="preserve">mmset4/8_lnk_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/8_n6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/8_lnk_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/8_lnk_7</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/8_lnk_8</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/8_lnk_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/8_n6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/8_lnk_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/8_n5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/8_lnk_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/8_n8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/8_lnk_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/8_n7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/8_lnk_7</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmset4/11_lnk_0</t>
   </si>
   <si>
+    <t xml:space="preserve">mmset4/11_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/11_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/11_lnk_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/11_n7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/11_lnk_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmset4/11_n1</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/11_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/11_lnk_1</t>
+    <t xml:space="preserve">mmset4/11_lnk_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/11_n6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/11_lnk_4</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/11_n3</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/11_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/11_n6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/11_lnk_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/11_n5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/11_lnk_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/11_n7</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmset4/11_lnk_5</t>
   </si>
   <si>
@@ -666,45 +666,45 @@
     <t xml:space="preserve">mmset4/12_lnk_0</t>
   </si>
   <si>
+    <t xml:space="preserve">mmset4/12_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/12_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/12_lnk_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural segment for UBERON:0002262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/12_n3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/12_n4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/12_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/12_n7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/12_lnk_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmset4/12_n1</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/12_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/12_lnk_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/12_n3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/12_lnk_2</t>
+    <t xml:space="preserve">mmset4/12_lnk_4</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/12_n6</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/12_lnk_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/12_n5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/12_lnk_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/12_n7</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmset4/12_lnk_5</t>
   </si>
   <si>
-    <t xml:space="preserve">Neural segment for UBERON:0002262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/12_n4</t>
-  </si>
-  <si>
     <t xml:space="preserve">housingLyphs</t>
   </si>
   <si>
@@ -723,7 +723,7 @@
     <t xml:space="preserve">wbkg:lyph-CNS-sacral-nucleus-parasympathetic-S2-portion,wbkg:lyph-PNS-nerve-lumbar-pelvic,wbkg:lyph-PNS-nerve-plexus-ganglion-hypogastric</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/1_lnk_3,mmset4/1_lnk_2,mmset4/1_lnk_0</t>
+    <t xml:space="preserve">mmset4/1_lnk_2,mmset4/1_lnk_0,mmset4/1_lnk_4</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/1_2</t>
@@ -735,7 +735,7 @@
     <t xml:space="preserve">wbkg:lyph-CNS-sacral-nucleus-parasympathetic-S3-portion,wbkg:lyph-PNS-nerve-lumbar-pelvic</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/1_lnk_4,mmset4/1_lnk_2</t>
+    <t xml:space="preserve">mmset4/1_lnk_1,mmset4/1_lnk_0</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/1_3</t>
@@ -747,7 +747,7 @@
     <t xml:space="preserve">wbkg:lyph-CNS-sacral-nucleus-parasympathetic-S4-portion,wbkg:lyph-PNS-nerve-lumbar-pelvic</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/1_lnk_1,mmset4/1_lnk_2</t>
+    <t xml:space="preserve">mmset4/1_lnk_3,mmset4/1_lnk_0</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/2_1</t>
@@ -759,7 +759,7 @@
     <t xml:space="preserve">wbkg:wbkg:lyph_ILX_0793804,wbkg:lyph-PNS-nerve-lumbar-pelvic,wbkg:lyph-PNS-pelvic-ganglion-major,wbkg:lyph-PNS-pelvic-ganglion-accessory</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/2_lnk_1,mmset4/2_lnk_3,mmset4/2_lnk_2,mmset4/2_lnk_4</t>
+    <t xml:space="preserve">mmset4/2_lnk_4,mmset4/2_lnk_1,mmset4/2_lnk_0,mmset4/2_lnk_2</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/2_2</t>
@@ -771,7 +771,7 @@
     <t xml:space="preserve">wbkg:lyph-CNS-sacral-nucleus-parasympathetic-S1-portion,wbkg:lyph-PNS-nerve-lumbar-pelvic</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/2_lnk_0,mmset4/2_lnk_3</t>
+    <t xml:space="preserve">mmset4/2_lnk_3,mmset4/2_lnk_1</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/3</t>
@@ -795,7 +795,7 @@
     <t xml:space="preserve">wbkg:lyph-PNS-pelvic-ganglion-major,wbkg:lyph-PNS-nerve-penile-cavernous,wbkg:lyph-urinary-penile-corpus-cavernosum</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/3a_lnk_1,mmset4/3a_lnk_3,mmset4/3a_lnk_0</t>
+    <t xml:space="preserve">mmset4/3a_lnk_3,mmset4/3a_lnk_2,mmset4/3a_lnk_0</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/3a_2</t>
@@ -807,7 +807,7 @@
     <t xml:space="preserve">wbkg:lyph-PNS-pelvic-ganglion-accessory,wbkg:lyph-PNS-nerve-penile-cavernous</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/3a_lnk_2,mmset4/3a_lnk_3</t>
+    <t xml:space="preserve">mmset4/3a_lnk_1,mmset4/3a_lnk_2</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/3b_1</t>
@@ -816,13 +816,13 @@
     <t xml:space="preserve">wbkg:lyph-PNS-pelvic-ganglion-major,wbkg:lyph-PNS-nerve-penile-cavernous,wbkg:lyph-urinary-penile-corpus-spongiosum</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/3b_lnk_1,mmset4/3b_lnk_3,mmset4/3b_lnk_0</t>
+    <t xml:space="preserve">mmset4/3b_lnk_3,mmset4/3b_lnk_1,mmset4/3b_lnk_0</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/3b_2</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/3b_lnk_2,mmset4/3b_lnk_3</t>
+    <t xml:space="preserve">mmset4/3b_lnk_2,mmset4/3b_lnk_1</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/3c_1</t>
@@ -831,13 +831,13 @@
     <t xml:space="preserve">wbkg:lyph-PNS-pelvic-ganglion-major,wbkg:lyph-PNS-nerve-penile-cavernous,wbkg:lyph-male-genital-gland-bulbourethral</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/3c_lnk_0,mmset4/3c_lnk_3,mmset4/3c_lnk_2</t>
+    <t xml:space="preserve">mmset4/3c_lnk_3,mmset4/3c_lnk_1,mmset4/3c_lnk_0</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/3c_2</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/3c_lnk_1,mmset4/3c_lnk_3</t>
+    <t xml:space="preserve">mmset4/3c_lnk_2,mmset4/3c_lnk_1</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/3e</t>
@@ -921,7 +921,7 @@
     <t xml:space="preserve">wbkg:lyph-T4-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:wbkg:lyph_ILX_0793821,wbkg:lyph-PNS-nerve-lesser-splanchnic,wbkg:wbkg:lyph_ILX_0793821</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/7_lnk_10,mmset4/7_lnk_4,mmset4/7_lnk_13,mmset4/7_lnk_2,mmset4/7_lnk_13</t>
+    <t xml:space="preserve">mmset4/7_lnk_1,mmset4/7_lnk_10,mmset4/7_lnk_9,mmset4/7_lnk_2,mmset4/7_lnk_9</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/7_2</t>
@@ -933,129 +933,129 @@
     <t xml:space="preserve">wbkg:lyph-T5-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
   </si>
   <si>
+    <t xml:space="preserve">mmset4/7_lnk_7,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbkg:lyph-T6-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_0,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbkg:lyph-T7-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_8,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbkg:lyph-T8-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_4,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbkg:lyph-T9-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_6,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbkg:lyph-T10-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_14,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbkg:lyph-T11-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_5,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbkg:lyph-T12-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_12,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbkg:lyph-T13-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
+  </si>
+  <si>
     <t xml:space="preserve">mmset4/7_lnk_3,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/7_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbkg:lyph-T6-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_7,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbkg:lyph-T7-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_6,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbkg:lyph-T8-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
+    <t xml:space="preserve">mmset4/7_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbkg:lyph-L1-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_lnk_13,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmset4/7_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbkg:lyph-L2-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/7_lnk_11,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/7_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbkg:lyph-T9-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_9,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbkg:lyph-T10-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_14,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbkg:lyph-T11-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_1,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbkg:lyph-T12-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_5,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbkg:lyph-T13-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_8,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbkg:lyph-L1-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_12,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4–L2 intermediolateral cell columns to pre verteb_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbkg:lyph-L2-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-nerve-lesser-splanchnic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmset4/7_lnk_0,mmset4/7_lnk_15,mmset4/7_lnk_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">mmset4/8_1</t>
   </si>
   <si>
@@ -1065,7 +1065,7 @@
     <t xml:space="preserve">wbkg:lyph-T5-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:wbkg:lyph_ILX_0793821,wbkg:lyph-PNS-nerve-lesser-splanchnic,wbkg:wbkg:lyph_ILX_0793821</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/8_lnk_1,mmset4/8_lnk_2,mmset4/8_lnk_7,mmset4/8_lnk_0,mmset4/8_lnk_7</t>
+    <t xml:space="preserve">mmset4/8_lnk_4,mmset4/8_lnk_7,mmset4/8_lnk_6,mmset4/8_lnk_1,mmset4/8_lnk_6</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/8_2</t>
@@ -1074,7 +1074,7 @@
     <t xml:space="preserve">T5-T9 intermediolateral cell columns to pre verteb_2</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/8_lnk_4,mmset4/8_lnk_8,mmset4/8_lnk_0</t>
+    <t xml:space="preserve">mmset4/8_lnk_0,mmset4/8_lnk_8,mmset4/8_lnk_1</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/8_3</t>
@@ -1083,7 +1083,7 @@
     <t xml:space="preserve">T5-T9 intermediolateral cell columns to pre verteb_3</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/8_lnk_3,mmset4/8_lnk_8,mmset4/8_lnk_0</t>
+    <t xml:space="preserve">mmset4/8_lnk_5,mmset4/8_lnk_8,mmset4/8_lnk_1</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/8_4</t>
@@ -1092,7 +1092,7 @@
     <t xml:space="preserve">T5-T9 intermediolateral cell columns to pre verteb_4</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/8_lnk_6,mmset4/8_lnk_8,mmset4/8_lnk_0</t>
+    <t xml:space="preserve">mmset4/8_lnk_2,mmset4/8_lnk_8,mmset4/8_lnk_1</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/8_5</t>
@@ -1101,7 +1101,7 @@
     <t xml:space="preserve">T5-T9 intermediolateral cell columns to pre verteb_5</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/8_lnk_5,mmset4/8_lnk_8,mmset4/8_lnk_0</t>
+    <t xml:space="preserve">mmset4/8_lnk_3,mmset4/8_lnk_8,mmset4/8_lnk_1</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/9</t>
@@ -1137,7 +1137,7 @@
     <t xml:space="preserve">wbkg:lyph-T5-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-endocrine-gland-adrenal</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/11_lnk_0,mmset4/11_lnk_1,mmset4/11_lnk_5</t>
+    <t xml:space="preserve">mmset4/11_lnk_2,mmset4/11_lnk_4,mmset4/11_lnk_5</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/11_2</t>
@@ -1149,7 +1149,7 @@
     <t xml:space="preserve">wbkg:lyph-T6-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/11_lnk_3,mmset4/11_lnk_1</t>
+    <t xml:space="preserve">mmset4/11_lnk_0,mmset4/11_lnk_4</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/11_3</t>
@@ -1161,7 +1161,7 @@
     <t xml:space="preserve">wbkg:lyph-T7-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/11_lnk_2,mmset4/11_lnk_1</t>
+    <t xml:space="preserve">mmset4/11_lnk_3,mmset4/11_lnk_4</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/11_4</t>
@@ -1173,7 +1173,7 @@
     <t xml:space="preserve">wbkg:lyph-T8-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/11_lnk_4,mmset4/11_lnk_1</t>
+    <t xml:space="preserve">mmset4/11_lnk_1,mmset4/11_lnk_4</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/12_1</t>
@@ -1185,7 +1185,7 @@
     <t xml:space="preserve">wbkg:lyph-T5-spinal-segment,wbkg:lyph-PNS-nerve-greater-splanchnic,wbkg:lyph-PNS-ganglion-celiac</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/12_lnk_0,mmset4/12_lnk_1,mmset4/12_lnk_5</t>
+    <t xml:space="preserve">mmset4/12_lnk_3,mmset4/12_lnk_5,mmset4/12_lnk_1</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/12_2</t>
@@ -1194,7 +1194,7 @@
     <t xml:space="preserve">T5-T8 intermedio lateral cell column to Celiac gan_2</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/12_lnk_3,mmset4/12_lnk_1</t>
+    <t xml:space="preserve">mmset4/12_lnk_0,mmset4/12_lnk_5</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/12_3</t>
@@ -1203,7 +1203,7 @@
     <t xml:space="preserve">T5-T8 intermedio lateral cell column to Celiac gan_3</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/12_lnk_2,mmset4/12_lnk_1</t>
+    <t xml:space="preserve">mmset4/12_lnk_4,mmset4/12_lnk_5</t>
   </si>
   <si>
     <t xml:space="preserve">mmset4/12_4</t>
@@ -1212,7 +1212,7 @@
     <t xml:space="preserve">T5-T8 intermedio lateral cell column to Celiac gan_4</t>
   </si>
   <si>
-    <t xml:space="preserve">mmset4/12_lnk_4,mmset4/12_lnk_1</t>
+    <t xml:space="preserve">mmset4/12_lnk_2,mmset4/12_lnk_5</t>
   </si>
   <si>
     <t xml:space="preserve">links</t>
@@ -1227,10 +1227,10 @@
     <t xml:space="preserve">Group mmset4/1</t>
   </si>
   <si>
-    <t xml:space="preserve">nlp:mmset4/1_lnk_3,nlp:mmset4/1_lnk_2,nlp:mmset4/1_lnk_1,nlp:mmset4/1_lnk_0,nlp:mmset4/1_lnk_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp:mmset4/1_n4,nlp:mmset4/1_n6,nlp:mmset4/1_n5,nlp:mmset4/1_n1,nlp:mmset4/1_n3,nlp:mmset4/1_n2</t>
+    <t xml:space="preserve">nlp:mmset4/1_lnk_1,nlp:mmset4/1_lnk_0,nlp:mmset4/1_lnk_2,nlp:mmset4/1_lnk_4,nlp:mmset4/1_lnk_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp:mmset4/1_n2,nlp:mmset4/1_n3,nlp:mmset4/1_n6,nlp:mmset4/1_n5,nlp:mmset4/1_n1,nlp:mmset4/1_n4</t>
   </si>
   <si>
     <t xml:space="preserve">dynamic</t>
@@ -1242,10 +1242,16 @@
     <t xml:space="preserve">Group mmset4/2</t>
   </si>
   <si>
-    <t xml:space="preserve">nlp:mmset4/2_lnk_2,nlp:mmset4/2_lnk_3,nlp:mmset4/2_lnk_4,nlp:mmset4/2_lnk_1,nlp:mmset4/2_lnk_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp:mmset4/2_n5,nlp:mmset4/2_n4,nlp:mmset4/2_n2,nlp:mmset4/2_n1,nlp:mmset4/2_n3,nlp:mmset4/2_n6</t>
+    <t xml:space="preserve">nlp:mmset4/2_lnk_0,nlp:mmset4/2_lnk_2,nlp:mmset4/2_lnk_4,nlp:mmset4/2_lnk_3,nlp:mmset4/2_lnk_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp:mmset4/2_n2,nlp:mmset4/2_n6,nlp:mmset4/2_n4,nlp:mmset4/2_n1,nlp:mmset4/2_n3,nlp:mmset4/2_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_neuron_mmset4/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group mmset4/3</t>
   </si>
   <si>
     <t xml:space="preserve">g_neuron_mmset4/3a</t>
@@ -1254,10 +1260,10 @@
     <t xml:space="preserve">Group mmset4/3a</t>
   </si>
   <si>
-    <t xml:space="preserve">nlp:mmset4/3a_lnk_1,nlp:mmset4/3a_lnk_3,nlp:mmset4/3a_lnk_2,nlp:mmset4/3a_lnk_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp:mmset4/3a_n5,nlp:mmset4/3a_n1,nlp:mmset4/3a_n4,nlp:mmset4/3a_n3,nlp:mmset4/3a_n2</t>
+    <t xml:space="preserve">nlp:mmset4/3a_lnk_1,nlp:mmset4/3a_lnk_0,nlp:mmset4/3a_lnk_3,nlp:mmset4/3a_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp:mmset4/3a_n3,nlp:mmset4/3a_n5,nlp:mmset4/3a_n4,nlp:mmset4/3a_n1,nlp:mmset4/3a_n2</t>
   </si>
   <si>
     <t xml:space="preserve">g_neuron_mmset4/3b</t>
@@ -1266,10 +1272,10 @@
     <t xml:space="preserve">Group mmset4/3b</t>
   </si>
   <si>
-    <t xml:space="preserve">nlp:mmset4/3b_lnk_0,nlp:mmset4/3b_lnk_1,nlp:mmset4/3b_lnk_2,nlp:mmset4/3b_lnk_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp:mmset4/3b_n1,nlp:mmset4/3b_n3,nlp:mmset4/3b_n4,nlp:mmset4/3b_n2,nlp:mmset4/3b_n5</t>
+    <t xml:space="preserve">nlp:mmset4/3b_lnk_2,nlp:mmset4/3b_lnk_1,nlp:mmset4/3b_lnk_0,nlp:mmset4/3b_lnk_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp:mmset4/3b_n3,nlp:mmset4/3b_n2,nlp:mmset4/3b_n5,nlp:mmset4/3b_n4,nlp:mmset4/3b_n1</t>
   </si>
   <si>
     <t xml:space="preserve">g_neuron_mmset4/3c</t>
@@ -1281,7 +1287,43 @@
     <t xml:space="preserve">nlp:mmset4/3c_lnk_3,nlp:mmset4/3c_lnk_0,nlp:mmset4/3c_lnk_1,nlp:mmset4/3c_lnk_2</t>
   </si>
   <si>
-    <t xml:space="preserve">nlp:mmset4/3c_n5,nlp:mmset4/3c_n4,nlp:mmset4/3c_n2,nlp:mmset4/3c_n1,nlp:mmset4/3c_n3</t>
+    <t xml:space="preserve">nlp:mmset4/3c_n3,nlp:mmset4/3c_n2,nlp:mmset4/3c_n5,nlp:mmset4/3c_n1,nlp:mmset4/3c_n4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_neuron_mmset4/3e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group mmset4/3e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_neuron_mmset4/4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group mmset4/4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_neuron_mmset4/4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group mmset4/4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_neuron_mmset4/4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group mmset4/4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_neuron_mmset4/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group mmset4/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_neuron_mmset4/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group mmset4/6</t>
   </si>
   <si>
     <t xml:space="preserve">g_neuron_mmset4/7</t>
@@ -1290,10 +1332,10 @@
     <t xml:space="preserve">Group mmset4/7</t>
   </si>
   <si>
-    <t xml:space="preserve">nlp:mmset4/7_lnk_10,nlp:mmset4/7_lnk_11,nlp:mmset4/7_lnk_6,nlp:mmset4/7_lnk_4,nlp:mmset4/7_lnk_0,nlp:mmset4/7_lnk_3,nlp:mmset4/7_lnk_2,nlp:mmset4/7_lnk_8,nlp:mmset4/7_lnk_12,nlp:mmset4/7_lnk_15,nlp:mmset4/7_lnk_13,nlp:mmset4/7_lnk_14,nlp:mmset4/7_lnk_9,nlp:mmset4/7_lnk_5,nlp:mmset4/7_lnk_7,nlp:mmset4/7_lnk_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp:mmset4/7_n6,nlp:mmset4/7_n8,nlp:mmset4/7_n2,nlp:mmset4/7_n1,nlp:mmset4/7_n12,nlp:mmset4/7_n11,nlp:mmset4/7_n13,nlp:mmset4/7_n9,nlp:mmset4/7_n10,nlp:mmset4/7_n15,nlp:mmset4/7_n7,nlp:mmset4/7_n5,nlp:mmset4/7_n3,nlp:mmset4/7_n4,nlp:mmset4/7_n14</t>
+    <t xml:space="preserve">nlp:mmset4/7_lnk_11,nlp:mmset4/7_lnk_3,nlp:mmset4/7_lnk_2,nlp:mmset4/7_lnk_1,nlp:mmset4/7_lnk_6,nlp:mmset4/7_lnk_15,nlp:mmset4/7_lnk_14,nlp:mmset4/7_lnk_10,nlp:mmset4/7_lnk_0,nlp:mmset4/7_lnk_4,nlp:mmset4/7_lnk_8,nlp:mmset4/7_lnk_5,nlp:mmset4/7_lnk_7,nlp:mmset4/7_lnk_9,nlp:mmset4/7_lnk_12,nlp:mmset4/7_lnk_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp:mmset4/7_n1,nlp:mmset4/7_n6,nlp:mmset4/7_n11,nlp:mmset4/7_n15,nlp:mmset4/7_n3,nlp:mmset4/7_n2,nlp:mmset4/7_n7,nlp:mmset4/7_n5,nlp:mmset4/7_n14,nlp:mmset4/7_n4,nlp:mmset4/7_n10,nlp:mmset4/7_n13,nlp:mmset4/7_n8,nlp:mmset4/7_n12,nlp:mmset4/7_n9</t>
   </si>
   <si>
     <t xml:space="preserve">g_neuron_mmset4/8</t>
@@ -1302,10 +1344,22 @@
     <t xml:space="preserve">Group mmset4/8</t>
   </si>
   <si>
-    <t xml:space="preserve">nlp:mmset4/8_lnk_2,nlp:mmset4/8_lnk_8,nlp:mmset4/8_lnk_0,nlp:mmset4/8_lnk_6,nlp:mmset4/8_lnk_1,nlp:mmset4/8_lnk_4,nlp:mmset4/8_lnk_5,nlp:mmset4/8_lnk_7,nlp:mmset4/8_lnk_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp:mmset4/8_n3,nlp:mmset4/8_n4,nlp:mmset4/8_n2,nlp:mmset4/8_n7,nlp:mmset4/8_n1,nlp:mmset4/8_n5,nlp:mmset4/8_n6,nlp:mmset4/8_n8</t>
+    <t xml:space="preserve">nlp:mmset4/8_lnk_7,nlp:mmset4/8_lnk_5,nlp:mmset4/8_lnk_0,nlp:mmset4/8_lnk_2,nlp:mmset4/8_lnk_3,nlp:mmset4/8_lnk_1,nlp:mmset4/8_lnk_8,nlp:mmset4/8_lnk_4,nlp:mmset4/8_lnk_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp:mmset4/8_n6,nlp:mmset4/8_n2,nlp:mmset4/8_n7,nlp:mmset4/8_n3,nlp:mmset4/8_n5,nlp:mmset4/8_n8,nlp:mmset4/8_n4,nlp:mmset4/8_n1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_neuron_mmset4/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group mmset4/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_neuron_mmset4/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group mmset4/10</t>
   </si>
   <si>
     <t xml:space="preserve">g_neuron_mmset4/11</t>
@@ -1314,10 +1368,10 @@
     <t xml:space="preserve">Group mmset4/11</t>
   </si>
   <si>
-    <t xml:space="preserve">nlp:mmset4/11_lnk_2,nlp:mmset4/11_lnk_4,nlp:mmset4/11_lnk_0,nlp:mmset4/11_lnk_3,nlp:mmset4/11_lnk_1,nlp:mmset4/11_lnk_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp:mmset4/11_n1,nlp:mmset4/11_n7,nlp:mmset4/11_n3,nlp:mmset4/11_n6,nlp:mmset4/11_n4,nlp:mmset4/11_n2,nlp:mmset4/11_n5</t>
+    <t xml:space="preserve">nlp:mmset4/11_lnk_0,nlp:mmset4/11_lnk_5,nlp:mmset4/11_lnk_2,nlp:mmset4/11_lnk_1,nlp:mmset4/11_lnk_3,nlp:mmset4/11_lnk_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp:mmset4/11_n1,nlp:mmset4/11_n3,nlp:mmset4/11_n6,nlp:mmset4/11_n5,nlp:mmset4/11_n7,nlp:mmset4/11_n2,nlp:mmset4/11_n4</t>
   </si>
   <si>
     <t xml:space="preserve">g_neuron_mmset4/12</t>
@@ -1326,10 +1380,10 @@
     <t xml:space="preserve">Group mmset4/12</t>
   </si>
   <si>
-    <t xml:space="preserve">nlp:mmset4/12_lnk_3,nlp:mmset4/12_lnk_2,nlp:mmset4/12_lnk_4,nlp:mmset4/12_lnk_1,nlp:mmset4/12_lnk_0,nlp:mmset4/12_lnk_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlp:mmset4/12_n2,nlp:mmset4/12_n3,nlp:mmset4/12_n6,nlp:mmset4/12_n5,nlp:mmset4/12_n4,nlp:mmset4/12_n7,nlp:mmset4/12_n1</t>
+    <t xml:space="preserve">nlp:mmset4/12_lnk_1,nlp:mmset4/12_lnk_4,nlp:mmset4/12_lnk_3,nlp:mmset4/12_lnk_0,nlp:mmset4/12_lnk_5,nlp:mmset4/12_lnk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp:mmset4/12_n2,nlp:mmset4/12_n1,nlp:mmset4/12_n3,nlp:mmset4/12_n4,nlp:mmset4/12_n6,nlp:mmset4/12_n7,nlp:mmset4/12_n5</t>
   </si>
   <si>
     <t xml:space="preserve">prefix</t>
@@ -1457,7 +1511,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1558,7 +1611,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1607,9 +1660,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.json"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2092,33 +2142,33 @@
         <v>77</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,47 +2179,47 @@
         <v>85</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,7 +2230,7 @@
         <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>94</v>
@@ -2194,50 +2244,50 @@
         <v>96</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,13 +2298,13 @@
         <v>105</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +2329,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>15</v>
@@ -2296,33 +2346,33 @@
         <v>113</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,50 +2397,50 @@
         <v>120</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>121</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,30 +2448,30 @@
         <v>126</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>128</v>
@@ -2429,36 +2479,36 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>133</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,44 +2587,44 @@
         <v>151</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>139</v>
@@ -2582,16 +2632,16 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>139</v>
@@ -2599,16 +2649,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>139</v>
@@ -2616,36 +2666,36 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,30 +2703,30 @@
         <v>168</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>139</v>
@@ -2684,16 +2734,16 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>139</v>
@@ -2701,19 +2751,19 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="E38" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,10 +2788,10 @@
         <v>181</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>182</v>
@@ -2755,10 +2805,10 @@
         <v>184</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>185</v>
@@ -2775,10 +2825,10 @@
         <v>151</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>183</v>
@@ -2786,84 +2836,84 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>186</v>
@@ -2874,16 +2924,16 @@
         <v>197</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>183</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,7 +2941,7 @@
         <v>198</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>15</v>
@@ -2911,13 +2961,13 @@
         <v>151</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,7 +2975,7 @@
         <v>203</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>15</v>
@@ -2942,7 +2992,7 @@
         <v>205</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>15</v>
@@ -2959,16 +3009,16 @@
         <v>207</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,7 +3032,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>211</v>
@@ -2993,7 +3043,7 @@
         <v>212</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>15</v>
@@ -3010,30 +3060,30 @@
         <v>215</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>214</v>
@@ -3041,7 +3091,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>160</v>
@@ -3050,7 +3100,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>214</v>
@@ -3058,16 +3108,16 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>214</v>
@@ -3075,19 +3125,19 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3780,7 +3830,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3853,10 +3903,10 @@
         <v>408</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>402</v>
@@ -3864,16 +3914,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>414</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>402</v>
@@ -3881,16 +3931,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>416</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>402</v>
@@ -3898,16 +3948,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>420</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>422</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>402</v>
@@ -3915,16 +3965,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>402</v>
@@ -3932,16 +3982,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>402</v>
@@ -3949,18 +3999,171 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="D14" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3993,7 +4196,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -4001,106 +4204,106 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/mmset4-.xlsx
+++ b/test/data/mmset4-.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Generated neuron chains from sparc-nlp.ttl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.jsonhttps://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.json</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.json</t>
   </si>
   <si>
     <t xml:space="preserve">supertype</t>
@@ -1511,6 +1511,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1611,7 +1612,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1660,6 +1661,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/wbrcm-model.json,https://raw.githubusercontent.com/open-physiology/open-physiology-viewer/feature/83_toggle/test/data/snapshot_mmset4.json"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
